--- a/Cloud Labs Login Credentials - Dynatrace - 18-22 Aug 2025 - BOA.xlsx
+++ b/Cloud Labs Login Credentials - Dynatrace - 18-22 Aug 2025 - BOA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\DT_BOA_18_08_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D2A8ED-F95F-48F7-B1BB-83F1D6BDC5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB010FB2-AC53-4632-8D03-7905AE182527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="123">
   <si>
     <t>Username</t>
   </si>
@@ -316,6 +316,93 @@
   </si>
   <si>
     <t>ubuntu</t>
+  </si>
+  <si>
+    <t>44.201.203.23</t>
+  </si>
+  <si>
+    <t>35.174.172.139</t>
+  </si>
+  <si>
+    <t>18.208.155.156</t>
+  </si>
+  <si>
+    <t>44.203.174.240</t>
+  </si>
+  <si>
+    <t>3.90.11.129</t>
+  </si>
+  <si>
+    <t>3.88.109.97</t>
+  </si>
+  <si>
+    <t>13.221.221.14</t>
+  </si>
+  <si>
+    <t>98.82.0.179</t>
+  </si>
+  <si>
+    <t>100.24.4.226</t>
+  </si>
+  <si>
+    <t>44.203.54.111</t>
+  </si>
+  <si>
+    <t>13.218.208.250</t>
+  </si>
+  <si>
+    <t>54.197.13.2</t>
+  </si>
+  <si>
+    <t>54.172.161.162</t>
+  </si>
+  <si>
+    <t>3.84.218.184</t>
+  </si>
+  <si>
+    <t>3.92.136.189</t>
+  </si>
+  <si>
+    <t>3.82.130.200</t>
+  </si>
+  <si>
+    <t>3.88.27.79</t>
+  </si>
+  <si>
+    <t>34.239.108.63</t>
+  </si>
+  <si>
+    <t>18.212.65.157</t>
+  </si>
+  <si>
+    <t>34.201.117.68</t>
+  </si>
+  <si>
+    <t>3.86.139.252</t>
+  </si>
+  <si>
+    <t>184.72.103.220</t>
+  </si>
+  <si>
+    <t>52.206.48.59</t>
+  </si>
+  <si>
+    <t>34.238.249.181</t>
+  </si>
+  <si>
+    <t>13.222.255.186</t>
+  </si>
+  <si>
+    <t>3.80.181.138</t>
+  </si>
+  <si>
+    <t>3.89.254.195</t>
+  </si>
+  <si>
+    <t>New_IP ADDRESS</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
   </si>
 </sst>
 </file>
@@ -527,7 +614,7 @@
       <name val="Segoe UI"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -711,6 +798,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -927,7 +1020,7 @@
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -956,6 +1049,8 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -986,8 +1081,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1089,9 +1183,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1316355</xdr:colOff>
+      <xdr:colOff>1312545</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>440055</xdr:rowOff>
+      <xdr:rowOff>436245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1433,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1447,58 +1541,61 @@
     <col min="4" max="4" width="22.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="3"/>
+    <col min="7" max="7" width="8.77734375" style="3"/>
+    <col min="8" max="8" width="18.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1511,14 +1608,20 @@
       <c r="D6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H6" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -1531,14 +1634,20 @@
       <c r="D7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -1551,14 +1660,20 @@
       <c r="D8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F8" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>3</v>
       </c>
@@ -1571,14 +1686,20 @@
       <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>4</v>
       </c>
@@ -1591,14 +1712,20 @@
       <c r="D10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F10" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>5</v>
       </c>
@@ -1611,14 +1738,20 @@
       <c r="D11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F11" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>6</v>
       </c>
@@ -1631,14 +1764,20 @@
       <c r="D12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F12" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>7</v>
       </c>
@@ -1651,14 +1790,20 @@
       <c r="D13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>8</v>
       </c>
@@ -1671,14 +1816,20 @@
       <c r="D14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F14" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>9</v>
       </c>
@@ -1691,14 +1842,20 @@
       <c r="D15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F15" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>10</v>
       </c>
@@ -1711,14 +1868,20 @@
       <c r="D16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F16" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>11</v>
       </c>
@@ -1731,14 +1894,20 @@
       <c r="D17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F17" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>12</v>
       </c>
@@ -1751,14 +1920,20 @@
       <c r="D18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F18" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>13</v>
       </c>
@@ -1771,14 +1946,20 @@
       <c r="D19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>14</v>
       </c>
@@ -1791,14 +1972,20 @@
       <c r="D20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F20" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>15</v>
       </c>
@@ -1811,14 +1998,20 @@
       <c r="D21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F21" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>16</v>
       </c>
@@ -1831,14 +2024,20 @@
       <c r="D22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F22" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>17</v>
       </c>
@@ -1851,14 +2050,20 @@
       <c r="D23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F23" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>18</v>
       </c>
@@ -1871,14 +2076,20 @@
       <c r="D24" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F24" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>19</v>
       </c>
@@ -1891,14 +2102,20 @@
       <c r="D25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F25" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>20</v>
       </c>
@@ -1911,14 +2128,20 @@
       <c r="D26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F26" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>21</v>
       </c>
@@ -1931,14 +2154,20 @@
       <c r="D27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F27" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>22</v>
       </c>
@@ -1951,14 +2180,20 @@
       <c r="D28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F28" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>23</v>
       </c>
@@ -1971,14 +2206,20 @@
       <c r="D29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F29" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>24</v>
       </c>
@@ -1991,14 +2232,20 @@
       <c r="D30" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F30" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F30" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>25</v>
       </c>
@@ -2011,14 +2258,20 @@
       <c r="D31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F31" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="9">
         <v>26</v>
       </c>
@@ -2031,11 +2284,22 @@
       <c r="D32" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="23" t="s">
-        <v>93</v>
+      <c r="F32" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H33" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Cloud Labs Login Credentials - Dynatrace - 18-22 Aug 2025 - BOA.xlsx
+++ b/Cloud Labs Login Credentials - Dynatrace - 18-22 Aug 2025 - BOA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\DT_BOA_18_08_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB010FB2-AC53-4632-8D03-7905AE182527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AD5027-55E8-4882-8EB3-025037852711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -345,9 +345,6 @@
     <t>100.24.4.226</t>
   </si>
   <si>
-    <t>44.203.54.111</t>
-  </si>
-  <si>
     <t>13.218.208.250</t>
   </si>
   <si>
@@ -403,6 +400,9 @@
   </si>
   <si>
     <t>USERNAME</t>
+  </si>
+  <si>
+    <t>35.173.232.119</t>
   </si>
 </sst>
 </file>
@@ -1051,6 +1051,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1081,7 +1082,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1529,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1548,52 +1548,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
@@ -1614,11 +1614,11 @@
       <c r="F6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -1641,7 +1641,7 @@
         <v>93</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>93</v>
@@ -1901,7 +1901,7 @@
         <v>93</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>93</v>
@@ -1927,7 +1927,7 @@
         <v>93</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>93</v>
@@ -1953,7 +1953,7 @@
         <v>93</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>93</v>
@@ -1979,7 +1979,7 @@
         <v>93</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>93</v>
@@ -2005,7 +2005,7 @@
         <v>93</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>93</v>
@@ -2031,7 +2031,7 @@
         <v>93</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>93</v>
@@ -2057,7 +2057,7 @@
         <v>93</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>93</v>
@@ -2083,7 +2083,7 @@
         <v>93</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I24" s="13" t="s">
         <v>93</v>
@@ -2109,7 +2109,7 @@
         <v>93</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I25" s="13" t="s">
         <v>93</v>
@@ -2135,7 +2135,7 @@
         <v>93</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I26" s="13" t="s">
         <v>93</v>
@@ -2161,7 +2161,7 @@
         <v>93</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>93</v>
@@ -2187,7 +2187,7 @@
         <v>93</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>93</v>
@@ -2213,7 +2213,7 @@
         <v>93</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>93</v>
@@ -2239,7 +2239,7 @@
         <v>93</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>93</v>
@@ -2265,7 +2265,7 @@
         <v>93</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>93</v>
@@ -2291,7 +2291,7 @@
         <v>93</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I32" s="13" t="s">
         <v>93</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H33" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
